--- a/data/pca/factorExposure/factorExposure_2017-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02221394555875375</v>
+        <v>0.009166241851444764</v>
       </c>
       <c r="C2">
-        <v>-0.009421662240008037</v>
+        <v>-0.04279524961786371</v>
       </c>
       <c r="D2">
-        <v>-0.0298031263968392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02970495152863757</v>
+      </c>
+      <c r="E2">
+        <v>-0.03680076525886878</v>
+      </c>
+      <c r="F2">
+        <v>-0.007731735867764443</v>
+      </c>
+      <c r="G2">
+        <v>-0.09411804793479857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01693362127291348</v>
+        <v>0.04167098007871637</v>
       </c>
       <c r="C3">
-        <v>0.01331624380761348</v>
+        <v>-0.1024004744368519</v>
       </c>
       <c r="D3">
-        <v>-0.1038222413844419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01834802788344764</v>
+      </c>
+      <c r="E3">
+        <v>-0.1045429782874058</v>
+      </c>
+      <c r="F3">
+        <v>-0.002846346208968663</v>
+      </c>
+      <c r="G3">
+        <v>-0.1882039824201041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02438404078765847</v>
+        <v>0.05518806062521828</v>
       </c>
       <c r="C4">
-        <v>-0.0006485294541211064</v>
+        <v>-0.06794193533599356</v>
       </c>
       <c r="D4">
-        <v>-0.08571923511286379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02438626035441866</v>
+      </c>
+      <c r="E4">
+        <v>-0.02973675204288941</v>
+      </c>
+      <c r="F4">
+        <v>-0.009222593143811523</v>
+      </c>
+      <c r="G4">
+        <v>-0.09935783412922991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01206407139023368</v>
+        <v>0.03627981808601054</v>
       </c>
       <c r="C6">
-        <v>-0.01312328764057068</v>
+        <v>-0.05262378929058986</v>
       </c>
       <c r="D6">
-        <v>-0.08028351302576756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01685954796450261</v>
+      </c>
+      <c r="E6">
+        <v>-0.03457430937070239</v>
+      </c>
+      <c r="F6">
+        <v>-0.00692110077554391</v>
+      </c>
+      <c r="G6">
+        <v>-0.08251054475824175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01036705959745853</v>
+        <v>0.02058567286900377</v>
       </c>
       <c r="C7">
-        <v>-0.005234466895458677</v>
+        <v>-0.03933968046246541</v>
       </c>
       <c r="D7">
-        <v>-0.0374711681896077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01370208344536759</v>
+      </c>
+      <c r="E7">
+        <v>-0.00425065797033635</v>
+      </c>
+      <c r="F7">
+        <v>0.004095604459086776</v>
+      </c>
+      <c r="G7">
+        <v>-0.1179560181573483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002334484543509066</v>
+        <v>0.003021646003312219</v>
       </c>
       <c r="C8">
-        <v>-0.001804522906628295</v>
+        <v>-0.02471319457185666</v>
       </c>
       <c r="D8">
-        <v>-0.003178011671170975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004031341975026364</v>
+      </c>
+      <c r="E8">
+        <v>-0.02837867868810844</v>
+      </c>
+      <c r="F8">
+        <v>-0.005847537666377386</v>
+      </c>
+      <c r="G8">
+        <v>-0.07114224175186268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01642755991147916</v>
+        <v>0.03309804758690851</v>
       </c>
       <c r="C9">
-        <v>0.001603439884487086</v>
+        <v>-0.04871071496202428</v>
       </c>
       <c r="D9">
-        <v>-0.06161536561462898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01647362575932721</v>
+      </c>
+      <c r="E9">
+        <v>-0.01974809668290497</v>
+      </c>
+      <c r="F9">
+        <v>-0.006633699203388191</v>
+      </c>
+      <c r="G9">
+        <v>-0.09935181971503187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05785224682957521</v>
+        <v>0.0988264213020562</v>
       </c>
       <c r="C10">
-        <v>0.1807594370580206</v>
+        <v>0.1816859600977751</v>
       </c>
       <c r="D10">
-        <v>0.08741591090637103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01494930423869041</v>
+      </c>
+      <c r="E10">
+        <v>-0.0222460636955271</v>
+      </c>
+      <c r="F10">
+        <v>0.02290116650668574</v>
+      </c>
+      <c r="G10">
+        <v>-0.05837660376517174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001226010531072153</v>
+        <v>0.03418002836001151</v>
       </c>
       <c r="C11">
-        <v>-0.007148876837269075</v>
+        <v>-0.05435037055814062</v>
       </c>
       <c r="D11">
-        <v>-0.05508251940359355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002394518877956264</v>
+      </c>
+      <c r="E11">
+        <v>-0.0159479612806864</v>
+      </c>
+      <c r="F11">
+        <v>-0.02065237717869566</v>
+      </c>
+      <c r="G11">
+        <v>-0.09220005249660994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004342505928392016</v>
+        <v>0.03611117672940438</v>
       </c>
       <c r="C12">
-        <v>-0.005057283256280003</v>
+        <v>-0.04897303447391173</v>
       </c>
       <c r="D12">
-        <v>-0.04878560861950831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006394607342629079</v>
+      </c>
+      <c r="E12">
+        <v>-0.007198899316214309</v>
+      </c>
+      <c r="F12">
+        <v>-0.00186022868437658</v>
+      </c>
+      <c r="G12">
+        <v>-0.08436313566731278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02383089923687209</v>
+        <v>0.01531930777341882</v>
       </c>
       <c r="C13">
-        <v>0.002126382041261116</v>
+        <v>-0.04157063874842985</v>
       </c>
       <c r="D13">
-        <v>-0.03859740330448595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02639293412370004</v>
+      </c>
+      <c r="E13">
+        <v>-0.03609120509074029</v>
+      </c>
+      <c r="F13">
+        <v>-0.005286048806740136</v>
+      </c>
+      <c r="G13">
+        <v>-0.1351886956572057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009092532669725971</v>
+        <v>0.008455252757589581</v>
       </c>
       <c r="C14">
-        <v>0.004561300465215263</v>
+        <v>-0.02861851220150678</v>
       </c>
       <c r="D14">
-        <v>-0.01640063566700337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.00996650789237191</v>
+      </c>
+      <c r="E14">
+        <v>-0.006505985802472852</v>
+      </c>
+      <c r="F14">
+        <v>0.008460697149861337</v>
+      </c>
+      <c r="G14">
+        <v>-0.1018398229077719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001733031541279134</v>
+        <v>0.03298376545251488</v>
       </c>
       <c r="C16">
-        <v>0.002335641516473324</v>
+        <v>-0.04732103874460394</v>
       </c>
       <c r="D16">
-        <v>-0.04453715889868497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001893044104297647</v>
+      </c>
+      <c r="E16">
+        <v>-0.01387275588961446</v>
+      </c>
+      <c r="F16">
+        <v>-0.002503997020899579</v>
+      </c>
+      <c r="G16">
+        <v>-0.09285940525205424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01213479598371845</v>
+        <v>0.02123563505691328</v>
       </c>
       <c r="C19">
-        <v>-0.005031668169749401</v>
+        <v>-0.05399814122555154</v>
       </c>
       <c r="D19">
-        <v>-0.04776897285131249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01878033272063537</v>
+      </c>
+      <c r="E19">
+        <v>-0.07351981008737381</v>
+      </c>
+      <c r="F19">
+        <v>-0.0190750583189034</v>
+      </c>
+      <c r="G19">
+        <v>-0.1326561521659678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009912426516185509</v>
+        <v>0.01485563900760714</v>
       </c>
       <c r="C20">
-        <v>-0.004426727563118358</v>
+        <v>-0.04006254236461126</v>
       </c>
       <c r="D20">
-        <v>-0.03516058125675545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01417545778565113</v>
+      </c>
+      <c r="E20">
+        <v>-0.03491034282411213</v>
+      </c>
+      <c r="F20">
+        <v>0.01402344662506111</v>
+      </c>
+      <c r="G20">
+        <v>-0.1103671975062031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01471733497501298</v>
+        <v>0.01212995816442097</v>
       </c>
       <c r="C21">
-        <v>0.001756948879131467</v>
+        <v>-0.03942439621614119</v>
       </c>
       <c r="D21">
-        <v>-0.03327653337335367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01877958306357298</v>
+      </c>
+      <c r="E21">
+        <v>-0.04861222903636826</v>
+      </c>
+      <c r="F21">
+        <v>-0.0005482812303343174</v>
+      </c>
+      <c r="G21">
+        <v>-0.1281581585099193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001451817614496257</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003138362052793826</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0005353469109798143</v>
+      </c>
+      <c r="E22">
+        <v>-0.002744564413759879</v>
+      </c>
+      <c r="F22">
+        <v>-0.001264994295905033</v>
+      </c>
+      <c r="G22">
+        <v>-0.004287244714408825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001456180313454374</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.000313426758140163</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0005354641852478446</v>
+      </c>
+      <c r="E23">
+        <v>-0.00275060660213686</v>
+      </c>
+      <c r="F23">
+        <v>-0.001263233949846992</v>
+      </c>
+      <c r="G23">
+        <v>-0.004301082539249229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001893394053746748</v>
+        <v>0.02834855100983279</v>
       </c>
       <c r="C24">
-        <v>-0.01108028350619205</v>
+        <v>-0.05170934423899111</v>
       </c>
       <c r="D24">
-        <v>-0.04889638240807273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007153339110759068</v>
+      </c>
+      <c r="E24">
+        <v>-0.01044493186691908</v>
+      </c>
+      <c r="F24">
+        <v>-0.01268995442081644</v>
+      </c>
+      <c r="G24">
+        <v>-0.09241987896653019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01227210447744544</v>
+        <v>0.04262089860655679</v>
       </c>
       <c r="C25">
-        <v>0.001994583408169985</v>
+        <v>-0.05886145422330678</v>
       </c>
       <c r="D25">
-        <v>-0.05872289308603641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01115893090960356</v>
+      </c>
+      <c r="E25">
+        <v>-0.002791282645255945</v>
+      </c>
+      <c r="F25">
+        <v>-0.006468314543048169</v>
+      </c>
+      <c r="G25">
+        <v>-0.1025224847616316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02265988735930766</v>
+        <v>0.01432076843794026</v>
       </c>
       <c r="C26">
-        <v>-0.002263131389832841</v>
+        <v>-0.01120421468841653</v>
       </c>
       <c r="D26">
-        <v>-0.001405836455216932</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02398316421954783</v>
+      </c>
+      <c r="E26">
+        <v>-0.009292811939484434</v>
+      </c>
+      <c r="F26">
+        <v>0.009819481499145698</v>
+      </c>
+      <c r="G26">
+        <v>-0.0809265480617871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09094151742664631</v>
+        <v>0.1260762644362879</v>
       </c>
       <c r="C28">
-        <v>0.2370707058556548</v>
+        <v>0.2381772886640997</v>
       </c>
       <c r="D28">
-        <v>0.1087522858589323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005838856029149016</v>
+      </c>
+      <c r="E28">
+        <v>-0.01008681633675034</v>
+      </c>
+      <c r="F28">
+        <v>0.01701029501044798</v>
+      </c>
+      <c r="G28">
+        <v>-0.04621365277649355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01063949242521967</v>
+        <v>0.009253331052484541</v>
       </c>
       <c r="C29">
-        <v>0.00966866189806642</v>
+        <v>-0.02241132396939793</v>
       </c>
       <c r="D29">
-        <v>-0.01808336533433155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008993753679888063</v>
+      </c>
+      <c r="E29">
+        <v>-0.003652202534705264</v>
+      </c>
+      <c r="F29">
+        <v>0.01689427460870528</v>
+      </c>
+      <c r="G29">
+        <v>-0.09599797731147135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01953812568447614</v>
+        <v>0.04061371011529705</v>
       </c>
       <c r="C30">
-        <v>-0.02050311651777005</v>
+        <v>-0.07137979461688412</v>
       </c>
       <c r="D30">
-        <v>-0.1043275563962071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02876459540945383</v>
+      </c>
+      <c r="E30">
+        <v>-0.055168976224216</v>
+      </c>
+      <c r="F30">
+        <v>-0.04149876238749062</v>
+      </c>
+      <c r="G30">
+        <v>-0.1271307329061735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01415486909502184</v>
+        <v>0.0529842730207972</v>
       </c>
       <c r="C31">
-        <v>0.0248294574290626</v>
+        <v>-0.03770851435711348</v>
       </c>
       <c r="D31">
-        <v>-0.03741058212778461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003757884312963909</v>
+      </c>
+      <c r="E31">
+        <v>-0.0003927430660708687</v>
+      </c>
+      <c r="F31">
+        <v>0.04087833456549199</v>
+      </c>
+      <c r="G31">
+        <v>-0.1004394002197811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001931933918003258</v>
+        <v>0.002045895415121526</v>
       </c>
       <c r="C32">
-        <v>0.01957624609257291</v>
+        <v>-0.02387323883436931</v>
       </c>
       <c r="D32">
-        <v>-0.003115176757094458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003526107621145625</v>
+      </c>
+      <c r="E32">
+        <v>-0.02839961178036184</v>
+      </c>
+      <c r="F32">
+        <v>-0.03751719164015297</v>
+      </c>
+      <c r="G32">
+        <v>-0.07527095933989678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01244556210879277</v>
+        <v>0.02745016748611026</v>
       </c>
       <c r="C33">
-        <v>0.0006314927516023466</v>
+        <v>-0.05111466495162906</v>
       </c>
       <c r="D33">
-        <v>-0.04591380552923827</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01565191377973734</v>
+      </c>
+      <c r="E33">
+        <v>-0.04186549664647765</v>
+      </c>
+      <c r="F33">
+        <v>-0.0140801311656217</v>
+      </c>
+      <c r="G33">
+        <v>-0.1614391641138825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00267351074133805</v>
+        <v>0.03989864931814705</v>
       </c>
       <c r="C34">
-        <v>0.008008292283068518</v>
+        <v>-0.06073569813685453</v>
       </c>
       <c r="D34">
-        <v>-0.05586162624448047</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004670381821499381</v>
+      </c>
+      <c r="E34">
+        <v>-0.005107804316156938</v>
+      </c>
+      <c r="F34">
+        <v>-0.02027203529588309</v>
+      </c>
+      <c r="G34">
+        <v>-0.09587239469894661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01481499083978031</v>
+        <v>0.01625312232837046</v>
       </c>
       <c r="C36">
-        <v>0.01015344747255935</v>
+        <v>-0.009353513501020826</v>
       </c>
       <c r="D36">
-        <v>-0.006533865008395959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01239349175484218</v>
+      </c>
+      <c r="E36">
+        <v>-0.008180690480441941</v>
+      </c>
+      <c r="F36">
+        <v>0.007384288789587733</v>
+      </c>
+      <c r="G36">
+        <v>-0.09037906631244133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001135605842005245</v>
+        <v>0.03114881678173827</v>
       </c>
       <c r="C38">
-        <v>0.023898836329824</v>
+        <v>-0.03124753807596873</v>
       </c>
       <c r="D38">
-        <v>-0.04928813220174285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007454625277911943</v>
+      </c>
+      <c r="E38">
+        <v>-0.005841351310789597</v>
+      </c>
+      <c r="F38">
+        <v>0.0200731832142263</v>
+      </c>
+      <c r="G38">
+        <v>-0.0866962922385357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.001364669805689867</v>
+        <v>0.03656883223173138</v>
       </c>
       <c r="C39">
-        <v>-0.03263942248647272</v>
+        <v>-0.08101365150785689</v>
       </c>
       <c r="D39">
-        <v>-0.1008753332164803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01149552885345207</v>
+      </c>
+      <c r="E39">
+        <v>-0.02694068797829629</v>
+      </c>
+      <c r="F39">
+        <v>-0.02215547595854382</v>
+      </c>
+      <c r="G39">
+        <v>-0.08990742419644628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01257456993664921</v>
+        <v>0.0131775534659441</v>
       </c>
       <c r="C40">
-        <v>0.002660274582120171</v>
+        <v>-0.04054521110225438</v>
       </c>
       <c r="D40">
-        <v>-0.04064504473182812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01494346935748736</v>
+      </c>
+      <c r="E40">
+        <v>-0.03213220054201269</v>
+      </c>
+      <c r="F40">
+        <v>0.007502919091062224</v>
+      </c>
+      <c r="G40">
+        <v>-0.1200537426997959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01038054793641253</v>
+        <v>0.02069296705772486</v>
       </c>
       <c r="C41">
-        <v>0.02042597564677648</v>
+        <v>-0.002219132662783771</v>
       </c>
       <c r="D41">
-        <v>0.009855654661514859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004241477786023355</v>
+      </c>
+      <c r="E41">
+        <v>-0.005762037207321734</v>
+      </c>
+      <c r="F41">
+        <v>0.01586994230636242</v>
+      </c>
+      <c r="G41">
+        <v>-0.08164834199329996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08353304456119541</v>
+        <v>0.01045229952120502</v>
       </c>
       <c r="C42">
-        <v>-0.04773467230312081</v>
+        <v>-0.03376645432798209</v>
       </c>
       <c r="D42">
-        <v>-0.169261772879699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08958383734391301</v>
+      </c>
+      <c r="E42">
+        <v>-0.01479864710268069</v>
+      </c>
+      <c r="F42">
+        <v>0.0475180472219177</v>
+      </c>
+      <c r="G42">
+        <v>0.04078779197033112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0107968540118354</v>
+        <v>0.03487056281490938</v>
       </c>
       <c r="C43">
-        <v>0.01903967750784733</v>
+        <v>-0.01826097438209815</v>
       </c>
       <c r="D43">
-        <v>0.00454743202162157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005892866472593982</v>
+      </c>
+      <c r="E43">
+        <v>-0.02098849566780905</v>
+      </c>
+      <c r="F43">
+        <v>0.006098032574707346</v>
+      </c>
+      <c r="G43">
+        <v>-0.120380963886637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0008017411702660263</v>
+        <v>0.01220987847731575</v>
       </c>
       <c r="C44">
-        <v>-0.008154901803109063</v>
+        <v>-0.05892351912212256</v>
       </c>
       <c r="D44">
-        <v>-0.05457499520878633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006948577520224018</v>
+      </c>
+      <c r="E44">
+        <v>-0.02236353571659495</v>
+      </c>
+      <c r="F44">
+        <v>0.006010150543272753</v>
+      </c>
+      <c r="G44">
+        <v>-0.108540930268107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01156260310725914</v>
+        <v>0.007790421221866009</v>
       </c>
       <c r="C46">
-        <v>0.003621964952929439</v>
+        <v>-0.01726051126186416</v>
       </c>
       <c r="D46">
-        <v>-0.003127328907002437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259218034772916</v>
+      </c>
+      <c r="E46">
+        <v>-0.003523445709794433</v>
+      </c>
+      <c r="F46">
+        <v>0.01633699729145563</v>
+      </c>
+      <c r="G46">
+        <v>-0.1026783522637005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.009430656136633856</v>
+        <v>0.07740554862623229</v>
       </c>
       <c r="C47">
-        <v>0.03067781963224385</v>
+        <v>-0.06751532671753104</v>
       </c>
       <c r="D47">
-        <v>-0.07444132006694315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005115515407205639</v>
+      </c>
+      <c r="E47">
+        <v>0.007180553587499932</v>
+      </c>
+      <c r="F47">
+        <v>0.0556072818048382</v>
+      </c>
+      <c r="G47">
+        <v>-0.0878899716230067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00566421404066591</v>
+        <v>0.01931712368871958</v>
       </c>
       <c r="C48">
-        <v>0.01218779253334752</v>
+        <v>-0.01289094979788023</v>
       </c>
       <c r="D48">
-        <v>-0.02008123075536661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00201260181615453</v>
+      </c>
+      <c r="E48">
+        <v>-0.004133534975533234</v>
+      </c>
+      <c r="F48">
+        <v>0.02047440510874076</v>
+      </c>
+      <c r="G48">
+        <v>-0.09612076901901286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01271488880747297</v>
+        <v>0.07507594379375944</v>
       </c>
       <c r="C50">
-        <v>0.0343293827469769</v>
+        <v>-0.07186043095720117</v>
       </c>
       <c r="D50">
-        <v>-0.07162170489250537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002281307218061662</v>
+      </c>
+      <c r="E50">
+        <v>0.003875365390484428</v>
+      </c>
+      <c r="F50">
+        <v>0.05681750062313039</v>
+      </c>
+      <c r="G50">
+        <v>-0.09546792245060125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007550022514985921</v>
+        <v>0.01450797785691177</v>
       </c>
       <c r="C51">
-        <v>0.003610693081720915</v>
+        <v>-0.03614755596622631</v>
       </c>
       <c r="D51">
-        <v>-0.02012618390516172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01047741331777126</v>
+      </c>
+      <c r="E51">
+        <v>-0.02469873518406133</v>
+      </c>
+      <c r="F51">
+        <v>-0.02365841102860162</v>
+      </c>
+      <c r="G51">
+        <v>-0.1220270288636717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01217465653735235</v>
+        <v>0.08146650203407987</v>
       </c>
       <c r="C53">
-        <v>0.02920399037038242</v>
+        <v>-0.08579701274878741</v>
       </c>
       <c r="D53">
-        <v>-0.1330716102986562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003330857801598006</v>
+      </c>
+      <c r="E53">
+        <v>0.02544699077205669</v>
+      </c>
+      <c r="F53">
+        <v>0.06381482568428837</v>
+      </c>
+      <c r="G53">
+        <v>-0.09529402897415004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009320365819784642</v>
+        <v>0.03262925721696186</v>
       </c>
       <c r="C54">
-        <v>0.0367731787774777</v>
+        <v>-0.01760954386057157</v>
       </c>
       <c r="D54">
-        <v>0.001366514268083522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001694457283264779</v>
+      </c>
+      <c r="E54">
+        <v>-0.01599443433921592</v>
+      </c>
+      <c r="F54">
+        <v>0.006687083233005328</v>
+      </c>
+      <c r="G54">
+        <v>-0.106667800054812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006004153273537388</v>
+        <v>0.07179005152470062</v>
       </c>
       <c r="C55">
-        <v>0.01665482897558296</v>
+        <v>-0.06942924762408864</v>
       </c>
       <c r="D55">
-        <v>-0.1086311641892459</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00498330390187493</v>
+      </c>
+      <c r="E55">
+        <v>0.02398601110586246</v>
+      </c>
+      <c r="F55">
+        <v>0.06378721459919955</v>
+      </c>
+      <c r="G55">
+        <v>-0.07088848686306988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01405361026795001</v>
+        <v>0.1368365278800907</v>
       </c>
       <c r="C56">
-        <v>0.04669520267239247</v>
+        <v>-0.1088956350876877</v>
       </c>
       <c r="D56">
-        <v>-0.1660416830776625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01244658628775483</v>
+      </c>
+      <c r="E56">
+        <v>0.03273743035492218</v>
+      </c>
+      <c r="F56">
+        <v>0.08000970836270044</v>
+      </c>
+      <c r="G56">
+        <v>-0.04859974533109025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02390607368374498</v>
+        <v>0.005282410111616321</v>
       </c>
       <c r="C57">
-        <v>-0.002413741612903956</v>
+        <v>-0.007430535736504901</v>
       </c>
       <c r="D57">
-        <v>-0.03665991671665509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02342266912672334</v>
+      </c>
+      <c r="E57">
+        <v>-0.02599629132538195</v>
+      </c>
+      <c r="F57">
+        <v>-0.01068819078959275</v>
+      </c>
+      <c r="G57">
+        <v>-0.02678162933713261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01781745256368091</v>
+        <v>0.05049817371383091</v>
       </c>
       <c r="C58">
-        <v>0.03928401542800341</v>
+        <v>-0.05551254230416713</v>
       </c>
       <c r="D58">
-        <v>-0.1622620884017899</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02233536426852752</v>
+      </c>
+      <c r="E58">
+        <v>-0.9166509825357623</v>
+      </c>
+      <c r="F58">
+        <v>0.2665762905559149</v>
+      </c>
+      <c r="G58">
+        <v>0.2143754499878273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.09457617871660801</v>
+        <v>0.1604813392667783</v>
       </c>
       <c r="C59">
-        <v>0.2605615137968964</v>
+        <v>0.2029514196448706</v>
       </c>
       <c r="D59">
-        <v>0.09173831784243568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01133276138784422</v>
+      </c>
+      <c r="E59">
+        <v>-0.02259796626901757</v>
+      </c>
+      <c r="F59">
+        <v>0.003099142546211111</v>
+      </c>
+      <c r="G59">
+        <v>-0.03751510312301652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.07992206359941743</v>
+        <v>0.2892372678715527</v>
       </c>
       <c r="C60">
-        <v>0.1619476695548095</v>
+        <v>-0.107617865426681</v>
       </c>
       <c r="D60">
-        <v>-0.14815384986837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01132947226677112</v>
+      </c>
+      <c r="E60">
+        <v>-0.001240848374936103</v>
+      </c>
+      <c r="F60">
+        <v>-0.3410384897540498</v>
+      </c>
+      <c r="G60">
+        <v>0.1578989758975791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002556399597728348</v>
+        <v>0.03845694881572169</v>
       </c>
       <c r="C61">
-        <v>-0.004599587324316144</v>
+        <v>-0.06673655545567539</v>
       </c>
       <c r="D61">
-        <v>-0.07579744124420293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.00531761035033336</v>
+      </c>
+      <c r="E61">
+        <v>-0.02067780630086727</v>
+      </c>
+      <c r="F61">
+        <v>-0.01336138676745382</v>
+      </c>
+      <c r="G61">
+        <v>-0.0929812734019802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008028402452316166</v>
+        <v>0.01532428744009335</v>
       </c>
       <c r="C63">
-        <v>-0.0008084551201675117</v>
+        <v>-0.03018937472884863</v>
       </c>
       <c r="D63">
-        <v>-0.02700389040813624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008545261776172978</v>
+      </c>
+      <c r="E63">
+        <v>-0.004066954949675958</v>
+      </c>
+      <c r="F63">
+        <v>0.01956643619122541</v>
+      </c>
+      <c r="G63">
+        <v>-0.09441203468709415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0123460095205636</v>
+        <v>0.0483070640209667</v>
       </c>
       <c r="C64">
-        <v>0.01705119135945066</v>
+        <v>-0.04753347571743891</v>
       </c>
       <c r="D64">
-        <v>-0.06590467918011547</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006185020901229004</v>
+      </c>
+      <c r="E64">
+        <v>-0.00459429189375099</v>
+      </c>
+      <c r="F64">
+        <v>-0.003881801811476254</v>
+      </c>
+      <c r="G64">
+        <v>-0.09622092523417484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01920761262555281</v>
+        <v>0.07405164332091053</v>
       </c>
       <c r="C65">
-        <v>-0.000507165630081142</v>
+        <v>-0.05987613334894618</v>
       </c>
       <c r="D65">
-        <v>-0.1063838100861698</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01653551512017099</v>
+      </c>
+      <c r="E65">
+        <v>-0.03690409143790861</v>
+      </c>
+      <c r="F65">
+        <v>-0.02830134753131159</v>
+      </c>
+      <c r="G65">
+        <v>-0.03615567888955636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.002311699842423558</v>
+        <v>0.05060075990520073</v>
       </c>
       <c r="C66">
-        <v>-0.03534176863821131</v>
+        <v>-0.1084648326689582</v>
       </c>
       <c r="D66">
-        <v>-0.1346619840024352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01160757146554581</v>
+      </c>
+      <c r="E66">
+        <v>-0.03759597443259113</v>
+      </c>
+      <c r="F66">
+        <v>-0.03401444193297774</v>
+      </c>
+      <c r="G66">
+        <v>-0.1060156004096023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01110099220039556</v>
+        <v>0.0541971611943401</v>
       </c>
       <c r="C67">
-        <v>0.04097888698901538</v>
+        <v>-0.0346623114576541</v>
       </c>
       <c r="D67">
-        <v>-0.06784205167644651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005957647664729746</v>
+      </c>
+      <c r="E67">
+        <v>0.002062550864501464</v>
+      </c>
+      <c r="F67">
+        <v>0.01853009800288686</v>
+      </c>
+      <c r="G67">
+        <v>-0.0769053976063972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1098026921928647</v>
+        <v>0.1559681331081979</v>
       </c>
       <c r="C68">
-        <v>0.2493091815711974</v>
+        <v>0.2697548302631131</v>
       </c>
       <c r="D68">
-        <v>0.1423472590379551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006169568368689837</v>
+      </c>
+      <c r="E68">
+        <v>-0.0149921272215608</v>
+      </c>
+      <c r="F68">
+        <v>0.03479740238654983</v>
+      </c>
+      <c r="G68">
+        <v>-0.02584472217044136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.007360534214128651</v>
+        <v>0.08276525004146898</v>
       </c>
       <c r="C69">
-        <v>0.03449470515199029</v>
+        <v>-0.07068420733601687</v>
       </c>
       <c r="D69">
-        <v>-0.08132921088750059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008982550443285942</v>
+      </c>
+      <c r="E69">
+        <v>0.0213144017192504</v>
+      </c>
+      <c r="F69">
+        <v>0.03677434813265949</v>
+      </c>
+      <c r="G69">
+        <v>-0.1024823552156687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.08513386952890653</v>
+        <v>0.1411915623193584</v>
       </c>
       <c r="C71">
-        <v>0.2091354022489039</v>
+        <v>0.2281163270833323</v>
       </c>
       <c r="D71">
-        <v>0.08999013186562733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002414081873482054</v>
+      </c>
+      <c r="E71">
+        <v>-0.03736686226655897</v>
+      </c>
+      <c r="F71">
+        <v>0.02104638000417271</v>
+      </c>
+      <c r="G71">
+        <v>-0.06769847341745205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001735927843053777</v>
+        <v>0.0852523723976851</v>
       </c>
       <c r="C72">
-        <v>0.01993796886206528</v>
+        <v>-0.07116484589439348</v>
       </c>
       <c r="D72">
-        <v>-0.1054816529771146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008647760820398628</v>
+      </c>
+      <c r="E72">
+        <v>0.005869093133260054</v>
+      </c>
+      <c r="F72">
+        <v>-0.04188614673945319</v>
+      </c>
+      <c r="G72">
+        <v>-0.08986647722130178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.09229795568043875</v>
+        <v>0.3766862509301945</v>
       </c>
       <c r="C73">
-        <v>0.1637966374565061</v>
+        <v>-0.1200458318812902</v>
       </c>
       <c r="D73">
-        <v>-0.2770189327117058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02015785669194692</v>
+      </c>
+      <c r="E73">
+        <v>-0.07906674703743259</v>
+      </c>
+      <c r="F73">
+        <v>-0.5753811362823305</v>
+      </c>
+      <c r="G73">
+        <v>0.2849497352203335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01284653034511898</v>
+        <v>0.104548844002197</v>
       </c>
       <c r="C74">
-        <v>0.0456100754496165</v>
+        <v>-0.1096351394679314</v>
       </c>
       <c r="D74">
-        <v>-0.1798904485714231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009351987969219693</v>
+      </c>
+      <c r="E74">
+        <v>0.007682924045774061</v>
+      </c>
+      <c r="F74">
+        <v>0.06878433369614614</v>
+      </c>
+      <c r="G74">
+        <v>-0.0871399883046594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.03231518794618872</v>
+        <v>0.2470101879942215</v>
       </c>
       <c r="C75">
-        <v>0.1115884569062506</v>
+        <v>-0.1525362065305343</v>
       </c>
       <c r="D75">
-        <v>-0.3057634976368147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03057791847394748</v>
+      </c>
+      <c r="E75">
+        <v>0.06836672569315198</v>
+      </c>
+      <c r="F75">
+        <v>0.1677587703493523</v>
+      </c>
+      <c r="G75">
+        <v>0.009997813246332992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01105344087321632</v>
+        <v>0.118573830857893</v>
       </c>
       <c r="C76">
-        <v>0.05841919146124563</v>
+        <v>-0.1091152391818753</v>
       </c>
       <c r="D76">
-        <v>-0.2196876577070229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01837486225063352</v>
+      </c>
+      <c r="E76">
+        <v>0.03135901083588368</v>
+      </c>
+      <c r="F76">
+        <v>0.106737360455915</v>
+      </c>
+      <c r="G76">
+        <v>-0.06031306296842053</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01555003337254851</v>
+        <v>0.06754759849235963</v>
       </c>
       <c r="C77">
-        <v>0.008567064482620811</v>
+        <v>-0.05990331515242386</v>
       </c>
       <c r="D77">
-        <v>-0.06881270222158889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01095352579379369</v>
+      </c>
+      <c r="E77">
+        <v>-0.04440786706324919</v>
+      </c>
+      <c r="F77">
+        <v>-0.01009324023961668</v>
+      </c>
+      <c r="G77">
+        <v>-0.06249618864736369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004662564216616142</v>
+        <v>0.04159015660492331</v>
       </c>
       <c r="C78">
-        <v>-1.108555981953592e-05</v>
+        <v>-0.05183194863140708</v>
       </c>
       <c r="D78">
-        <v>-0.05862078978617304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005586722924446266</v>
+      </c>
+      <c r="E78">
+        <v>-0.02609200267919477</v>
+      </c>
+      <c r="F78">
+        <v>-0.03644307956091236</v>
+      </c>
+      <c r="G78">
+        <v>-0.09875169888708552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02225174816339015</v>
+        <v>0.04352705007155729</v>
       </c>
       <c r="C80">
-        <v>0.02436150533626076</v>
+        <v>-0.05097647734739232</v>
       </c>
       <c r="D80">
-        <v>-0.08776872525149114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01293728492188538</v>
+      </c>
+      <c r="E80">
+        <v>-0.02344784408523593</v>
+      </c>
+      <c r="F80">
+        <v>-0.01427135974873743</v>
+      </c>
+      <c r="G80">
+        <v>-0.05046417097729149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02022381911766298</v>
+        <v>0.1359753838538501</v>
       </c>
       <c r="C81">
-        <v>0.06582360622630624</v>
+        <v>-0.09568754786726849</v>
       </c>
       <c r="D81">
-        <v>-0.1771865142194451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01485544941510034</v>
+      </c>
+      <c r="E81">
+        <v>0.03706261162585215</v>
+      </c>
+      <c r="F81">
+        <v>0.1262415510990658</v>
+      </c>
+      <c r="G81">
+        <v>-0.02380847504546759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1310457209478212</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07751975577533156</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.008702977007418062</v>
+      </c>
+      <c r="E82">
+        <v>0.09787297482493552</v>
+      </c>
+      <c r="F82">
+        <v>0.04777604986374726</v>
+      </c>
+      <c r="G82">
+        <v>-0.07369201391494624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.009802185185928156</v>
+        <v>0.03572377271206908</v>
       </c>
       <c r="C83">
-        <v>0.01388206251970983</v>
+        <v>-0.02997466256092302</v>
       </c>
       <c r="D83">
-        <v>-0.03545098211943636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006062350457658265</v>
+      </c>
+      <c r="E83">
+        <v>-0.03168569859327948</v>
+      </c>
+      <c r="F83">
+        <v>-0.03131660222601885</v>
+      </c>
+      <c r="G83">
+        <v>-0.06167131572747452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.03478017457342511</v>
+        <v>0.2119032608535434</v>
       </c>
       <c r="C85">
-        <v>0.08106136653926821</v>
+        <v>-0.1468121283358749</v>
       </c>
       <c r="D85">
-        <v>-0.2702453816522224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01755979401153555</v>
+      </c>
+      <c r="E85">
+        <v>0.1061149703745653</v>
+      </c>
+      <c r="F85">
+        <v>0.1262299789141642</v>
+      </c>
+      <c r="G85">
+        <v>0.06194250587334079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0100113752535274</v>
+        <v>0.01329322542644589</v>
       </c>
       <c r="C86">
-        <v>0.00955532387340967</v>
+        <v>-0.02890159858641011</v>
       </c>
       <c r="D86">
-        <v>-0.06307249091395829</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01206751103731308</v>
+      </c>
+      <c r="E86">
+        <v>-0.05389815135781958</v>
+      </c>
+      <c r="F86">
+        <v>-0.02366163488747018</v>
+      </c>
+      <c r="G86">
+        <v>-0.1927631696752968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00506960784532712</v>
+        <v>0.02118289946764856</v>
       </c>
       <c r="C87">
-        <v>-0.0118274150828001</v>
+        <v>-0.0234603780167739</v>
       </c>
       <c r="D87">
-        <v>-0.04907971745343281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01179632434027606</v>
+      </c>
+      <c r="E87">
+        <v>-0.09147372128244581</v>
+      </c>
+      <c r="F87">
+        <v>-0.009486424113954985</v>
+      </c>
+      <c r="G87">
+        <v>-0.1212457964436969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03128758229329549</v>
+        <v>0.09310715283439704</v>
       </c>
       <c r="C88">
-        <v>0.01718114079275913</v>
+        <v>-0.06837697899414792</v>
       </c>
       <c r="D88">
-        <v>-0.0556898919891775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02222759575818577</v>
+      </c>
+      <c r="E88">
+        <v>0.003669359725229466</v>
+      </c>
+      <c r="F88">
+        <v>0.02057148140236039</v>
+      </c>
+      <c r="G88">
+        <v>-0.0924837738894613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1593965235305591</v>
+        <v>0.2335154860614809</v>
       </c>
       <c r="C89">
-        <v>0.3847445258051674</v>
+        <v>0.3663336445208129</v>
       </c>
       <c r="D89">
-        <v>0.1631255419882781</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005522157842111718</v>
+      </c>
+      <c r="E89">
+        <v>0.01202182457037378</v>
+      </c>
+      <c r="F89">
+        <v>0.02334053399218623</v>
+      </c>
+      <c r="G89">
+        <v>-0.06872018305649276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1245278267261731</v>
+        <v>0.2079543963617112</v>
       </c>
       <c r="C90">
-        <v>0.3071773017068917</v>
+        <v>0.3187308505232138</v>
       </c>
       <c r="D90">
-        <v>0.1578337398399909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004144020378412117</v>
+      </c>
+      <c r="E90">
+        <v>0.002073509279888125</v>
+      </c>
+      <c r="F90">
+        <v>0.05279123315812224</v>
+      </c>
+      <c r="G90">
+        <v>-0.04320755681187666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.02703897820600295</v>
+        <v>0.1853007501033148</v>
       </c>
       <c r="C91">
-        <v>0.09846804452048781</v>
+        <v>-0.1402694094945232</v>
       </c>
       <c r="D91">
-        <v>-0.2278529107999462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02200627563371196</v>
+      </c>
+      <c r="E91">
+        <v>0.0660507342587351</v>
+      </c>
+      <c r="F91">
+        <v>0.1443498862285742</v>
+      </c>
+      <c r="G91">
+        <v>-0.036026739173794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.09322786008256412</v>
+        <v>0.2004326912921262</v>
       </c>
       <c r="C92">
-        <v>0.3123032898064637</v>
+        <v>0.2574483539623256</v>
       </c>
       <c r="D92">
-        <v>0.05202347997094372</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03757881820546657</v>
+      </c>
+      <c r="E92">
+        <v>-0.04459788728138043</v>
+      </c>
+      <c r="F92">
+        <v>0.06199404934399647</v>
+      </c>
+      <c r="G92">
+        <v>-0.1191943917407576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1298297031618237</v>
+        <v>0.2335153183683548</v>
       </c>
       <c r="C93">
-        <v>0.3349048307798773</v>
+        <v>0.3131958169123972</v>
       </c>
       <c r="D93">
-        <v>0.1176528866324157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01105160519818624</v>
+      </c>
+      <c r="E93">
+        <v>-0.009305644173742912</v>
+      </c>
+      <c r="F93">
+        <v>0.04247629309627278</v>
+      </c>
+      <c r="G93">
+        <v>-0.06018041107829342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.06627021579615427</v>
+        <v>0.3178289255982759</v>
       </c>
       <c r="C94">
-        <v>0.1424116475244463</v>
+        <v>-0.1789853036300108</v>
       </c>
       <c r="D94">
-        <v>-0.2892038968065895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01716779011924214</v>
+      </c>
+      <c r="E94">
+        <v>0.2076373796313832</v>
+      </c>
+      <c r="F94">
+        <v>0.4784192843599881</v>
+      </c>
+      <c r="G94">
+        <v>0.4326941360593868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002943564202593264</v>
+        <v>0.1014131770820782</v>
       </c>
       <c r="C95">
-        <v>0.01586571502096729</v>
+        <v>-0.08980563278299739</v>
       </c>
       <c r="D95">
-        <v>-0.1311611332932385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01144422356949158</v>
+      </c>
+      <c r="E95">
+        <v>-0.07463621902859702</v>
+      </c>
+      <c r="F95">
+        <v>-0.1978764646710186</v>
+      </c>
+      <c r="G95">
+        <v>0.05327083080453394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.04377009420965249</v>
+        <v>0.197581696742315</v>
       </c>
       <c r="C98">
-        <v>0.1414109237684094</v>
+        <v>-0.04657798224719235</v>
       </c>
       <c r="D98">
-        <v>-0.1630568177185729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01360700012444819</v>
+      </c>
+      <c r="E98">
+        <v>-0.0733355099990247</v>
+      </c>
+      <c r="F98">
+        <v>-0.2384686496763798</v>
+      </c>
+      <c r="G98">
+        <v>0.005283875005794312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01042767209320696</v>
+        <v>0.009039740698209274</v>
       </c>
       <c r="C101">
-        <v>0.009556502097082763</v>
+        <v>-0.02243073246893287</v>
       </c>
       <c r="D101">
-        <v>-0.01798540227966108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008837752843159611</v>
+      </c>
+      <c r="E101">
+        <v>-0.003483319033264532</v>
+      </c>
+      <c r="F101">
+        <v>0.01783741892338653</v>
+      </c>
+      <c r="G101">
+        <v>-0.09490022447447215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02432144397964548</v>
+        <v>0.1159111542165968</v>
       </c>
       <c r="C102">
-        <v>0.0389096804618595</v>
+        <v>-0.08381374822578987</v>
       </c>
       <c r="D102">
-        <v>-0.1323283006649439</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008603071987749498</v>
+      </c>
+      <c r="E102">
+        <v>0.03615732302593056</v>
+      </c>
+      <c r="F102">
+        <v>0.04069417365513568</v>
+      </c>
+      <c r="G102">
+        <v>-0.01900659841685243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.922688007033025</v>
+        <v>0.02083005430652336</v>
       </c>
       <c r="C104">
-        <v>-0.3599884474952011</v>
+        <v>0.02923084532362333</v>
       </c>
       <c r="D104">
-        <v>0.04009957705109355</v>
+        <v>-0.9879054559859707</v>
+      </c>
+      <c r="E104">
+        <v>0.04891658706740273</v>
+      </c>
+      <c r="F104">
+        <v>0.03244990640519677</v>
+      </c>
+      <c r="G104">
+        <v>0.03632486707353896</v>
       </c>
     </row>
   </sheetData>
